--- a/word2excel/RE方法/backup/选择题/客观题.xlsx
+++ b/word2excel/RE方法/backup/选择题/客观题.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9300"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t xml:space="preserve"> 题目类型 1单选 2多选</t>
   </si>
@@ -88,61 +88,86 @@
     <t>解析（必须以代码形式导入）</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF98C379"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/uploads/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF98C379"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ftp</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF98C379"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/img</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFD1D2D2"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/108.jpg</t>
-    </r>
-  </si>
-  <si>
-    <t>选项1</t>
-  </si>
-  <si>
-    <t>选项2</t>
-  </si>
-  <si>
-    <t>选项3</t>
-  </si>
-  <si>
-    <t>选项4</t>
-  </si>
-  <si>
-    <t>&lt;div&gt;
-        &lt;img src="https://stapi.seniorfd.com/uploads/admin/file/1/1/20221229/f38334cb7b54d20c4fa7ea1bab2ee8a1.webp" alt="" width="900",height="383"&gt;
-        &lt;p&gt;这是测试导入第一次鸦片战争后，资本一帝国主义列强逼迫中国签订了一系列不平等条约。随着外国资本主义的入侵，中国的社会性质开始发生质的变化。中国逐步成为半殖民地半封建国家。随着社会主要矛盾的变化，中国逐渐开始了反帝反封建的资产阶级民主革命。正因为如此，鸦片战争成为中国近代史的起点。选项D正确。民族意识的普遍觉醒是在甲午战争之后，选项B错误。选项A、选项C也不符合题意。&lt;/p&gt;
+    <t>一块负载而处于肌紧张状态但并不缩短的肌肉应属于  , 。</t>
+  </si>
+  <si>
+    <t>等长收缩</t>
+  </si>
+  <si>
+    <t>等张收缩</t>
+  </si>
+  <si>
+    <t>既非A又非B</t>
+  </si>
+  <si>
+    <t>既A且B</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;       &lt;p&gt;这里输入解析&lt;/p&gt;
     &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">属于随意肌的肌肉是    。 </t>
+  </si>
+  <si>
+    <t>平滑肌</t>
+  </si>
+  <si>
+    <t>心肌</t>
+  </si>
+  <si>
+    <t>骨骼肌</t>
+  </si>
+  <si>
+    <t>平滑肌与心肌</t>
+  </si>
+  <si>
+    <t>属于大腿前群肌的肌是     。</t>
+  </si>
+  <si>
+    <t>股二头肌</t>
+  </si>
+  <si>
+    <t>股四头肌</t>
+  </si>
+  <si>
+    <t>大收肌</t>
+  </si>
+  <si>
+    <t>半腱膜</t>
+  </si>
+  <si>
+    <t>当连续刺激的时间间隔短于单收缩的收缩期时肌肉出现     。</t>
+  </si>
+  <si>
+    <t>一次单收缩</t>
+  </si>
+  <si>
+    <t>一连串单收缩</t>
+  </si>
+  <si>
+    <t>强直收缩</t>
+  </si>
+  <si>
+    <t>无收缩反应</t>
+  </si>
+  <si>
+    <t>下列关于神经肌肉接头描述错误的是      。</t>
+  </si>
+  <si>
+    <t>神经肌肉接头处神经递质为乙酰胆碱；</t>
+  </si>
+  <si>
+    <t>突触间隙存在胆碱酯酶可水解乙酰胆碱；</t>
+  </si>
+  <si>
+    <t>一个运动神经元的神经末梢只能和一条骨骼肌纤维形成突触；</t>
+  </si>
+  <si>
+    <t>钠离子内流形成骨骼肌动作电位升支。</t>
+  </si>
+  <si>
+    <t>下列不参与伸膝关节的骨骼肌是      。</t>
   </si>
 </sst>
 </file>
@@ -155,22 +180,17 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
-    <font>
-      <sz val="11"/>
+  <fonts count="21">
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF98C379"/>
-      <name val="Consolas"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -319,21 +339,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF98C379"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FFD1D2D2"/>
-      <name val="Consolas"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="39">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -342,37 +349,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.8"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -671,184 +648,157 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -902,7 +852,7 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -912,7 +862,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -922,39 +872,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1033,298 +983,389 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
+                <a:tint val="100000"/>
                 <a:shade val="100000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X4"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="X31" sqref="X31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="10.3333333333333" customWidth="1"/>
-    <col min="2" max="2" width="15.1111111111111" customWidth="1"/>
-    <col min="3" max="3" width="18.1111111111111" customWidth="1"/>
-    <col min="4" max="5" width="14.1111111111111" customWidth="1"/>
-    <col min="6" max="6" width="11.5555555555556" customWidth="1"/>
-    <col min="7" max="7" width="9.33333333333333" customWidth="1"/>
-    <col min="8" max="8" width="13.7777777777778" customWidth="1"/>
+    <col min="3" max="3" width="90.375" customWidth="1"/>
+    <col min="7" max="7" width="38.25" style="1" customWidth="1"/>
+    <col min="10" max="10" width="40.375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9" style="1" customWidth="1"/>
+    <col min="16" max="16" width="9" style="1" customWidth="1"/>
+    <col min="19" max="19" width="9" style="1" customWidth="1"/>
+    <col min="24" max="24" width="29.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="72" spans="1:24">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:24">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="T1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="U1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="V1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="9" t="s">
+      <c r="W1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" ht="409.5" spans="1:24">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2" s="3" t="s">
+    <row r="2" ht="42.75" spans="3:24">
+      <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2" s="4">
-        <v>1</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" t="s">
         <v>25</v>
       </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="4">
-        <v>2</v>
-      </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" t="s">
         <v>26</v>
       </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2" s="4">
-        <v>0</v>
-      </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" t="s">
         <v>27</v>
       </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2" s="4">
-        <v>2</v>
-      </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" t="s">
         <v>28</v>
       </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="X2" s="1" t="s">
+      <c r="X2" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="7:10">
-      <c r="G3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
+    <row r="3" spans="3:16">
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P3" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="4" spans="7:10">
-      <c r="G4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
+    <row r="4" spans="3:16">
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4" t="s">
+        <v>38</v>
+      </c>
+      <c r="P4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="3:16">
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" t="s">
+        <v>42</v>
+      </c>
+      <c r="M5" t="s">
+        <v>43</v>
+      </c>
+      <c r="P5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="3:16">
+      <c r="C6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" t="s">
+        <v>47</v>
+      </c>
+      <c r="M6" t="s">
+        <v>48</v>
+      </c>
+      <c r="P6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3">
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
